--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2002,44 +2002,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.84765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.96875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="23.97265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="59.37109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="73.69140625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-composition.xlsx
+++ b/branches/main/StructureDefinition-hiv-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6358" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6395" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1553,10 +1553,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result)
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-diagnosis|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-disgnosis-encounter|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-test-conducted|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result|http://openhie.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
@@ -1585,6 +1585,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/hiv-recency-result)
+</t>
+  </si>
+  <si>
+    <t>hivTestDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-casereporting/StructureDefinition/date-tested-for-hiv)
 </t>
   </si>
   <si>
@@ -2032,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN174"/>
+  <dimension ref="A1:AN175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -12969,15 +12976,17 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="C96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>88</v>
@@ -12992,20 +13001,18 @@
         <v>76</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>178</v>
+        <v>504</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>76</v>
       </c>
@@ -13029,13 +13036,13 @@
         <v>76</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>76</v>
@@ -13053,13 +13060,13 @@
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>465</v>
@@ -13071,10 +13078,10 @@
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>76</v>
@@ -13085,7 +13092,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13096,7 +13103,7 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>76</v>
@@ -13108,18 +13115,20 @@
         <v>76</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>76</v>
       </c>
@@ -13143,13 +13152,13 @@
         <v>76</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>76</v>
@@ -13167,16 +13176,16 @@
         <v>76</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>100</v>
@@ -13185,10 +13194,10 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>76</v>
@@ -13199,11 +13208,9 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>76</v>
       </c>
@@ -13212,7 +13219,7 @@
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>76</v>
@@ -13224,15 +13231,17 @@
         <v>76</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>76</v>
@@ -13281,7 +13290,7 @@
         <v>76</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13290,10 +13299,10 @@
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>76</v>
@@ -13302,7 +13311,7 @@
         <v>413</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>76</v>
@@ -13313,9 +13322,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B99" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="C99" t="s" s="2">
         <v>76</v>
       </c>
@@ -13336,13 +13347,13 @@
         <v>76</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13393,28 +13404,28 @@
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>76</v>
@@ -13425,18 +13436,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>76</v>
@@ -13448,17 +13459,15 @@
         <v>76</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>76</v>
@@ -13507,19 +13516,19 @@
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>76</v>
@@ -13539,11 +13548,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -13556,26 +13565,24 @@
         <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>76</v>
       </c>
@@ -13623,7 +13630,7 @@
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -13641,7 +13648,7 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>76</v>
@@ -13655,42 +13662,42 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>76</v>
@@ -13700,7 +13707,7 @@
         <v>76</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>76</v>
@@ -13739,28 +13746,28 @@
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>76</v>
@@ -13771,15 +13778,15 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>88</v>
@@ -13794,19 +13801,19 @@
         <v>76</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>76</v>
@@ -13816,7 +13823,7 @@
         <v>76</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>76</v>
@@ -13831,13 +13838,13 @@
         <v>76</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>76</v>
@@ -13855,7 +13862,7 @@
         <v>76</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -13873,10 +13880,10 @@
         <v>76</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>76</v>
@@ -13887,7 +13894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13895,10 +13902,10 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>76</v>
@@ -13910,17 +13917,19 @@
         <v>76</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M104" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N104" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>76</v>
@@ -13930,7 +13939,7 @@
         <v>76</v>
       </c>
       <c r="R104" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>76</v>
@@ -13945,13 +13954,13 @@
         <v>76</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>76</v>
@@ -13969,13 +13978,13 @@
         <v>76</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>76</v>
@@ -13987,21 +13996,21 @@
         <v>76</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14012,7 +14021,7 @@
         <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>76</v>
@@ -14024,18 +14033,18 @@
         <v>76</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O105" t="s" s="2">
         <v>76</v>
       </c>
@@ -14083,13 +14092,13 @@
         <v>76</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>76</v>
@@ -14101,21 +14110,21 @@
         <v>76</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14138,16 +14147,16 @@
         <v>76</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14197,7 +14206,7 @@
         <v>76</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14206,7 +14215,7 @@
         <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>100</v>
@@ -14215,10 +14224,10 @@
         <v>76</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>76</v>
@@ -14229,7 +14238,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14252,20 +14261,18 @@
         <v>76</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>76</v>
       </c>
@@ -14289,13 +14296,13 @@
         <v>76</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>76</v>
@@ -14313,7 +14320,7 @@
         <v>76</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14322,7 +14329,7 @@
         <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>100</v>
@@ -14331,21 +14338,21 @@
         <v>76</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14368,19 +14375,19 @@
         <v>76</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>76</v>
@@ -14405,13 +14412,13 @@
         <v>76</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>76</v>
@@ -14429,7 +14436,7 @@
         <v>76</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -14447,7 +14454,7 @@
         <v>76</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>160</v>
@@ -14456,12 +14463,12 @@
         <v>76</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14469,10 +14476,10 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>76</v>
@@ -14484,18 +14491,20 @@
         <v>76</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>507</v>
+        <v>178</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>76</v>
       </c>
@@ -14519,38 +14528,40 @@
         <v>76</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB109" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC109" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>100</v>
@@ -14559,10 +14570,10 @@
         <v>76</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>76</v>
@@ -14575,18 +14586,16 @@
       <c r="A110" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B110" t="s" s="2">
-        <v>508</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>76</v>
@@ -14645,16 +14654,14 @@
         <v>76</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB110" s="2"/>
       <c r="AC110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE110" t="s" s="2">
         <v>461</v>
@@ -14815,7 +14822,7 @@
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>88</v>
@@ -14921,9 +14928,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B113" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="C113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14944,20 +14953,18 @@
         <v>76</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>178</v>
+        <v>515</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>76</v>
       </c>
@@ -14981,13 +14988,13 @@
         <v>76</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>76</v>
@@ -15005,13 +15012,13 @@
         <v>76</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>465</v>
@@ -15023,10 +15030,10 @@
         <v>76</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>76</v>
@@ -15037,7 +15044,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15048,7 +15055,7 @@
         <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>76</v>
@@ -15060,18 +15067,20 @@
         <v>76</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>76</v>
       </c>
@@ -15095,13 +15104,13 @@
         <v>76</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>76</v>
@@ -15119,16 +15128,16 @@
         <v>76</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>100</v>
@@ -15137,10 +15146,10 @@
         <v>76</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>76</v>
@@ -15151,11 +15160,9 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>76</v>
       </c>
@@ -15164,7 +15171,7 @@
         <v>77</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>76</v>
@@ -15176,15 +15183,17 @@
         <v>76</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>76</v>
@@ -15233,7 +15242,7 @@
         <v>76</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15242,10 +15251,10 @@
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>76</v>
@@ -15254,7 +15263,7 @@
         <v>413</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>76</v>
@@ -15265,9 +15274,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B116" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="C116" t="s" s="2">
         <v>76</v>
       </c>
@@ -15288,13 +15299,13 @@
         <v>76</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15345,28 +15356,28 @@
         <v>76</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>76</v>
@@ -15377,18 +15388,18 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>76</v>
@@ -15400,17 +15411,15 @@
         <v>76</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>76</v>
@@ -15459,19 +15468,19 @@
         <v>76</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>76</v>
@@ -15491,11 +15500,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15508,26 +15517,24 @@
         <v>76</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J118" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N118" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>76</v>
       </c>
@@ -15575,7 +15582,7 @@
         <v>76</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -15593,7 +15600,7 @@
         <v>76</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>76</v>
@@ -15607,42 +15614,42 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>76</v>
@@ -15652,7 +15659,7 @@
         <v>76</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>76</v>
@@ -15691,28 +15698,28 @@
         <v>76</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>76</v>
@@ -15723,15 +15730,15 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>88</v>
@@ -15746,19 +15753,19 @@
         <v>76</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>76</v>
@@ -15768,7 +15775,7 @@
         <v>76</v>
       </c>
       <c r="R120" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>76</v>
@@ -15783,13 +15790,13 @@
         <v>76</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>76</v>
@@ -15807,7 +15814,7 @@
         <v>76</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
@@ -15825,10 +15832,10 @@
         <v>76</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>76</v>
@@ -15839,7 +15846,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15847,10 +15854,10 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>76</v>
@@ -15862,17 +15869,19 @@
         <v>76</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N121" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>76</v>
@@ -15882,7 +15891,7 @@
         <v>76</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>76</v>
+        <v>518</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>76</v>
@@ -15897,13 +15906,13 @@
         <v>76</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>76</v>
@@ -15921,13 +15930,13 @@
         <v>76</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>76</v>
@@ -15939,21 +15948,21 @@
         <v>76</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15964,7 +15973,7 @@
         <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>76</v>
@@ -15976,18 +15985,18 @@
         <v>76</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="N122" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>76</v>
       </c>
@@ -16035,13 +16044,13 @@
         <v>76</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>76</v>
@@ -16053,21 +16062,21 @@
         <v>76</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16090,16 +16099,16 @@
         <v>76</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
@@ -16149,7 +16158,7 @@
         <v>76</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>77</v>
@@ -16158,7 +16167,7 @@
         <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>100</v>
@@ -16167,10 +16176,10 @@
         <v>76</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>76</v>
@@ -16181,7 +16190,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16204,20 +16213,18 @@
         <v>76</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>76</v>
       </c>
@@ -16241,13 +16248,13 @@
         <v>76</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>76</v>
@@ -16265,7 +16272,7 @@
         <v>76</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>77</v>
@@ -16274,7 +16281,7 @@
         <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>100</v>
@@ -16283,21 +16290,21 @@
         <v>76</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16320,19 +16327,19 @@
         <v>76</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>76</v>
@@ -16357,13 +16364,13 @@
         <v>76</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>76</v>
@@ -16381,7 +16388,7 @@
         <v>76</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>77</v>
@@ -16399,7 +16406,7 @@
         <v>76</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>160</v>
@@ -16408,12 +16415,12 @@
         <v>76</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16421,10 +16428,10 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>76</v>
@@ -16436,18 +16443,20 @@
         <v>76</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>517</v>
+        <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>76</v>
       </c>
@@ -16471,38 +16480,40 @@
         <v>76</v>
       </c>
       <c r="W126" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB126" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>100</v>
@@ -16511,10 +16522,10 @@
         <v>76</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>76</v>
@@ -16527,18 +16538,16 @@
       <c r="A127" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B127" t="s" s="2">
-        <v>518</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>76</v>
@@ -16597,16 +16606,14 @@
         <v>76</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB127" s="2"/>
       <c r="AC127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE127" t="s" s="2">
         <v>461</v>
@@ -16757,15 +16764,17 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B129" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="C129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>88</v>
@@ -16780,20 +16789,18 @@
         <v>76</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>178</v>
+        <v>523</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>76</v>
       </c>
@@ -16817,13 +16824,13 @@
         <v>76</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>76</v>
@@ -16841,13 +16848,13 @@
         <v>76</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>465</v>
@@ -16859,10 +16866,10 @@
         <v>76</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>76</v>
@@ -16873,7 +16880,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16884,7 +16891,7 @@
         <v>77</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>76</v>
@@ -16896,18 +16903,20 @@
         <v>76</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>76</v>
       </c>
@@ -16931,13 +16940,13 @@
         <v>76</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>76</v>
@@ -16955,16 +16964,16 @@
         <v>76</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>100</v>
@@ -16973,10 +16982,10 @@
         <v>76</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>76</v>
@@ -16987,11 +16996,9 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
         <v>76</v>
       </c>
@@ -17000,7 +17007,7 @@
         <v>77</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>76</v>
@@ -17012,15 +17019,17 @@
         <v>76</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M131" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
         <v>76</v>
@@ -17069,7 +17078,7 @@
         <v>76</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>77</v>
@@ -17078,10 +17087,10 @@
         <v>78</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>76</v>
@@ -17090,7 +17099,7 @@
         <v>413</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>76</v>
@@ -17101,9 +17110,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B132" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="C132" t="s" s="2">
         <v>76</v>
       </c>
@@ -17124,13 +17135,13 @@
         <v>76</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -17181,28 +17192,28 @@
         <v>76</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>76</v>
@@ -17213,18 +17224,18 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>76</v>
@@ -17236,17 +17247,15 @@
         <v>76</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>76</v>
@@ -17295,19 +17304,19 @@
         <v>76</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>76</v>
@@ -17327,11 +17336,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17344,26 +17353,24 @@
         <v>76</v>
       </c>
       <c r="H134" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J134" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N134" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
         <v>76</v>
       </c>
@@ -17411,7 +17418,7 @@
         <v>76</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>77</v>
@@ -17429,7 +17436,7 @@
         <v>76</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>76</v>
@@ -17443,42 +17450,42 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>76</v>
@@ -17488,7 +17495,7 @@
         <v>76</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>523</v>
+        <v>76</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>76</v>
@@ -17527,28 +17534,28 @@
         <v>76</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>76</v>
@@ -17559,15 +17566,15 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>88</v>
@@ -17582,19 +17589,19 @@
         <v>76</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>76</v>
@@ -17604,7 +17611,7 @@
         <v>76</v>
       </c>
       <c r="R136" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>76</v>
@@ -17619,13 +17626,13 @@
         <v>76</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>76</v>
@@ -17643,7 +17650,7 @@
         <v>76</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>77</v>
@@ -17661,10 +17668,10 @@
         <v>76</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>76</v>
@@ -17675,7 +17682,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17683,10 +17690,10 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>76</v>
@@ -17698,17 +17705,19 @@
         <v>76</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N137" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>76</v>
@@ -17718,7 +17727,7 @@
         <v>76</v>
       </c>
       <c r="R137" t="s" s="2">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>76</v>
@@ -17733,13 +17742,13 @@
         <v>76</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>76</v>
@@ -17757,13 +17766,13 @@
         <v>76</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>76</v>
@@ -17775,21 +17784,21 @@
         <v>76</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17800,7 +17809,7 @@
         <v>77</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>76</v>
@@ -17812,18 +17821,18 @@
         <v>76</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>76</v>
       </c>
@@ -17871,13 +17880,13 @@
         <v>76</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>76</v>
@@ -17889,21 +17898,21 @@
         <v>76</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17926,16 +17935,16 @@
         <v>76</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
@@ -17985,7 +17994,7 @@
         <v>76</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>77</v>
@@ -17994,7 +18003,7 @@
         <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>100</v>
@@ -18003,10 +18012,10 @@
         <v>76</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>76</v>
@@ -18017,7 +18026,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18040,20 +18049,18 @@
         <v>76</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>76</v>
       </c>
@@ -18077,13 +18084,13 @@
         <v>76</v>
       </c>
       <c r="W140" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z140" t="s" s="2">
         <v>76</v>
@@ -18101,7 +18108,7 @@
         <v>76</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>77</v>
@@ -18110,7 +18117,7 @@
         <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>100</v>
@@ -18119,21 +18126,21 @@
         <v>76</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18156,19 +18163,19 @@
         <v>76</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>76</v>
@@ -18193,13 +18200,13 @@
         <v>76</v>
       </c>
       <c r="W141" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z141" t="s" s="2">
         <v>76</v>
@@ -18217,7 +18224,7 @@
         <v>76</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>77</v>
@@ -18235,7 +18242,7 @@
         <v>76</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>160</v>
@@ -18244,12 +18251,12 @@
         <v>76</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18260,7 +18267,7 @@
         <v>77</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>76</v>
@@ -18272,18 +18279,20 @@
         <v>76</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>525</v>
+        <v>178</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>76</v>
       </c>
@@ -18307,13 +18316,13 @@
         <v>76</v>
       </c>
       <c r="W142" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z142" t="s" s="2">
         <v>76</v>
@@ -18331,16 +18340,16 @@
         <v>76</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>100</v>
@@ -18349,10 +18358,10 @@
         <v>76</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>76</v>
@@ -18363,7 +18372,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18374,7 +18383,7 @@
         <v>77</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>76</v>
@@ -18386,20 +18395,18 @@
         <v>76</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>178</v>
+        <v>527</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>76</v>
       </c>
@@ -18423,13 +18430,13 @@
         <v>76</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>76</v>
@@ -18447,13 +18454,13 @@
         <v>76</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>465</v>
@@ -18465,10 +18472,10 @@
         <v>76</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>76</v>
@@ -18479,7 +18486,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18490,7 +18497,7 @@
         <v>77</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>76</v>
@@ -18502,18 +18509,20 @@
         <v>76</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O144" t="s" s="2">
         <v>76</v>
       </c>
@@ -18537,13 +18546,13 @@
         <v>76</v>
       </c>
       <c r="W144" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>76</v>
@@ -18561,16 +18570,16 @@
         <v>76</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>100</v>
@@ -18579,10 +18588,10 @@
         <v>76</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>76</v>
@@ -18593,11 +18602,9 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
         <v>76</v>
       </c>
@@ -18606,7 +18613,7 @@
         <v>77</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>76</v>
@@ -18618,15 +18625,17 @@
         <v>76</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M145" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
         <v>76</v>
@@ -18675,7 +18684,7 @@
         <v>76</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>77</v>
@@ -18684,10 +18693,10 @@
         <v>78</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>76</v>
@@ -18696,7 +18705,7 @@
         <v>413</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>76</v>
@@ -18707,9 +18716,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B146" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="C146" t="s" s="2">
         <v>76</v>
       </c>
@@ -18730,13 +18741,13 @@
         <v>76</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18787,28 +18798,28 @@
         <v>76</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>76</v>
@@ -18819,18 +18830,18 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>76</v>
@@ -18842,17 +18853,15 @@
         <v>76</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
         <v>76</v>
@@ -18901,19 +18910,19 @@
         <v>76</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>76</v>
@@ -18933,11 +18942,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18950,26 +18959,24 @@
         <v>76</v>
       </c>
       <c r="H148" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N148" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>76</v>
       </c>
@@ -19017,7 +19024,7 @@
         <v>76</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>77</v>
@@ -19035,7 +19042,7 @@
         <v>76</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>76</v>
@@ -19049,42 +19056,42 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>76</v>
@@ -19094,7 +19101,7 @@
         <v>76</v>
       </c>
       <c r="R149" t="s" s="2">
-        <v>527</v>
+        <v>76</v>
       </c>
       <c r="S149" t="s" s="2">
         <v>76</v>
@@ -19133,28 +19140,28 @@
         <v>76</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>76</v>
@@ -19165,15 +19172,15 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>88</v>
@@ -19188,19 +19195,19 @@
         <v>76</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>76</v>
@@ -19210,7 +19217,7 @@
         <v>76</v>
       </c>
       <c r="R150" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="S150" t="s" s="2">
         <v>76</v>
@@ -19225,13 +19232,13 @@
         <v>76</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>76</v>
@@ -19249,7 +19256,7 @@
         <v>76</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>77</v>
@@ -19267,10 +19274,10 @@
         <v>76</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>76</v>
@@ -19281,7 +19288,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19289,10 +19296,10 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>76</v>
@@ -19304,17 +19311,19 @@
         <v>76</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M151" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N151" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>76</v>
@@ -19324,7 +19333,7 @@
         <v>76</v>
       </c>
       <c r="R151" t="s" s="2">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>76</v>
@@ -19339,13 +19348,13 @@
         <v>76</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>76</v>
@@ -19363,13 +19372,13 @@
         <v>76</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>76</v>
@@ -19381,21 +19390,21 @@
         <v>76</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19406,7 +19415,7 @@
         <v>77</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>76</v>
@@ -19418,18 +19427,18 @@
         <v>76</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N152" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M152" s="2"/>
+      <c r="N152" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O152" t="s" s="2">
         <v>76</v>
       </c>
@@ -19477,13 +19486,13 @@
         <v>76</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>76</v>
@@ -19495,21 +19504,21 @@
         <v>76</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19532,16 +19541,16 @@
         <v>76</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19591,7 +19600,7 @@
         <v>76</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>77</v>
@@ -19600,7 +19609,7 @@
         <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI153" t="s" s="2">
         <v>100</v>
@@ -19609,10 +19618,10 @@
         <v>76</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>76</v>
@@ -19623,7 +19632,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19646,20 +19655,18 @@
         <v>76</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
         <v>76</v>
       </c>
@@ -19683,13 +19690,13 @@
         <v>76</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>76</v>
@@ -19707,7 +19714,7 @@
         <v>76</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>77</v>
@@ -19716,7 +19723,7 @@
         <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>100</v>
@@ -19725,21 +19732,21 @@
         <v>76</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19762,19 +19769,19 @@
         <v>76</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>76</v>
@@ -19799,13 +19806,13 @@
         <v>76</v>
       </c>
       <c r="W155" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>76</v>
@@ -19823,7 +19830,7 @@
         <v>76</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>77</v>
@@ -19841,7 +19848,7 @@
         <v>76</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>160</v>
@@ -19850,12 +19857,12 @@
         <v>76</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19863,10 +19870,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>76</v>
@@ -19878,18 +19885,20 @@
         <v>76</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>529</v>
+        <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N156" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O156" t="s" s="2">
         <v>76</v>
       </c>
@@ -19913,38 +19922,40 @@
         <v>76</v>
       </c>
       <c r="W156" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AB156" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB156" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC156" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD156" t="s" s="2">
-        <v>485</v>
+        <v>76</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>100</v>
@@ -19953,10 +19964,10 @@
         <v>76</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -19969,18 +19980,16 @@
       <c r="A157" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="B157" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>88</v>
+        <v>508</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>76</v>
@@ -20039,16 +20048,14 @@
         <v>76</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="AB157" s="2"/>
       <c r="AC157" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD157" t="s" s="2">
-        <v>76</v>
+        <v>485</v>
       </c>
       <c r="AE157" t="s" s="2">
         <v>461</v>
@@ -20199,15 +20206,17 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B159" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="C159" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>88</v>
@@ -20222,20 +20231,18 @@
         <v>76</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>178</v>
+        <v>535</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>76</v>
       </c>
@@ -20259,13 +20266,13 @@
         <v>76</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>76</v>
@@ -20283,13 +20290,13 @@
         <v>76</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>465</v>
@@ -20301,10 +20308,10 @@
         <v>76</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>76</v>
@@ -20315,7 +20322,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20326,7 +20333,7 @@
         <v>77</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>76</v>
@@ -20338,18 +20345,20 @@
         <v>76</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N160" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N160" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O160" t="s" s="2">
         <v>76</v>
       </c>
@@ -20373,13 +20382,13 @@
         <v>76</v>
       </c>
       <c r="W160" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>76</v>
@@ -20397,16 +20406,16 @@
         <v>76</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>100</v>
@@ -20415,10 +20424,10 @@
         <v>76</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20429,11 +20438,9 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
         <v>76</v>
       </c>
@@ -20442,7 +20449,7 @@
         <v>77</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>76</v>
@@ -20454,15 +20461,17 @@
         <v>76</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>76</v>
@@ -20511,7 +20520,7 @@
         <v>76</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>77</v>
@@ -20520,10 +20529,10 @@
         <v>78</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>76</v>
@@ -20532,7 +20541,7 @@
         <v>413</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20543,9 +20552,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B162" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="C162" t="s" s="2">
         <v>76</v>
       </c>
@@ -20566,13 +20577,13 @@
         <v>76</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>156</v>
+        <v>309</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>157</v>
+        <v>407</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>158</v>
+        <v>408</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -20623,28 +20634,28 @@
         <v>76</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>159</v>
+        <v>406</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -20655,18 +20666,18 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>76</v>
@@ -20678,17 +20689,15 @@
         <v>76</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>76</v>
@@ -20737,19 +20746,19 @@
         <v>76</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>76</v>
@@ -20769,11 +20778,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -20786,26 +20795,24 @@
         <v>76</v>
       </c>
       <c r="H164" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I164" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J164" t="s" s="2">
         <v>134</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>321</v>
+        <v>135</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="M164" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N164" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
         <v>76</v>
       </c>
@@ -20853,7 +20860,7 @@
         <v>76</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>77</v>
@@ -20871,7 +20878,7 @@
         <v>76</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>76</v>
@@ -20885,42 +20892,42 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>420</v>
+        <v>321</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>421</v>
+        <v>322</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>423</v>
+        <v>143</v>
       </c>
       <c r="O165" t="s" s="2">
         <v>76</v>
@@ -20930,7 +20937,7 @@
         <v>76</v>
       </c>
       <c r="R165" t="s" s="2">
-        <v>535</v>
+        <v>76</v>
       </c>
       <c r="S165" t="s" s="2">
         <v>76</v>
@@ -20969,28 +20976,28 @@
         <v>76</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>418</v>
+        <v>323</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
@@ -21001,15 +21008,15 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>88</v>
@@ -21024,19 +21031,19 @@
         <v>76</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>76</v>
@@ -21046,7 +21053,7 @@
         <v>76</v>
       </c>
       <c r="R166" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>76</v>
@@ -21061,13 +21068,13 @@
         <v>76</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="X166" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="Z166" t="s" s="2">
         <v>76</v>
@@ -21085,7 +21092,7 @@
         <v>76</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>77</v>
@@ -21103,10 +21110,10 @@
         <v>76</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
@@ -21117,7 +21124,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21125,10 +21132,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>76</v>
@@ -21140,17 +21147,19 @@
         <v>76</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M167" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="N167" t="s" s="2">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>76</v>
@@ -21160,7 +21169,7 @@
         <v>76</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>76</v>
+        <v>538</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>76</v>
@@ -21175,13 +21184,13 @@
         <v>76</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>76</v>
+        <v>246</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
       <c r="Z167" t="s" s="2">
         <v>76</v>
@@ -21199,13 +21208,13 @@
         <v>76</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>76</v>
@@ -21217,21 +21226,21 @@
         <v>76</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21242,7 +21251,7 @@
         <v>77</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>76</v>
@@ -21254,18 +21263,18 @@
         <v>76</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N168" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O168" t="s" s="2">
         <v>76</v>
       </c>
@@ -21313,13 +21322,13 @@
         <v>76</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>76</v>
@@ -21331,21 +21340,21 @@
         <v>76</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>438</v>
+        <v>290</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21368,16 +21377,16 @@
         <v>76</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
@@ -21427,7 +21436,7 @@
         <v>76</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>77</v>
@@ -21436,7 +21445,7 @@
         <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>443</v>
+        <v>76</v>
       </c>
       <c r="AI169" t="s" s="2">
         <v>100</v>
@@ -21445,10 +21454,10 @@
         <v>76</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>444</v>
+        <v>76</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>76</v>
@@ -21459,7 +21468,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21482,20 +21491,18 @@
         <v>76</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
         <v>76</v>
       </c>
@@ -21519,13 +21526,13 @@
         <v>76</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>76</v>
@@ -21543,7 +21550,7 @@
         <v>76</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>77</v>
@@ -21552,7 +21559,7 @@
         <v>88</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>100</v>
@@ -21561,21 +21568,21 @@
         <v>76</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>160</v>
+        <v>444</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21598,19 +21605,19 @@
         <v>76</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>76</v>
@@ -21635,13 +21642,13 @@
         <v>76</v>
       </c>
       <c r="W171" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>76</v>
@@ -21659,7 +21666,7 @@
         <v>76</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>77</v>
@@ -21677,7 +21684,7 @@
         <v>76</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>160</v>
@@ -21686,12 +21693,12 @@
         <v>76</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -21702,7 +21709,7 @@
         <v>77</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>76</v>
@@ -21714,18 +21721,20 @@
         <v>76</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>537</v>
+        <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O172" t="s" s="2">
         <v>76</v>
       </c>
@@ -21749,13 +21758,13 @@
         <v>76</v>
       </c>
       <c r="W172" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>76</v>
+        <v>459</v>
       </c>
       <c r="Z172" t="s" s="2">
         <v>76</v>
@@ -21773,16 +21782,16 @@
         <v>76</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>100</v>
@@ -21791,10 +21800,10 @@
         <v>76</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>76</v>
@@ -21805,7 +21814,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21816,7 +21825,7 @@
         <v>77</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>76</v>
@@ -21828,20 +21837,18 @@
         <v>76</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>178</v>
+        <v>539</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
         <v>76</v>
       </c>
@@ -21865,13 +21872,13 @@
         <v>76</v>
       </c>
       <c r="W173" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>473</v>
+        <v>76</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="Z173" t="s" s="2">
         <v>76</v>
@@ -21889,13 +21896,13 @@
         <v>76</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>465</v>
@@ -21907,10 +21914,10 @@
         <v>76</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>76</v>
@@ -21921,7 +21928,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21932,7 +21939,7 @@
         <v>77</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>76</v>
@@ -21944,18 +21951,20 @@
         <v>76</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N174" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O174" t="s" s="2">
         <v>76</v>
       </c>
@@ -21979,13 +21988,13 @@
         <v>76</v>
       </c>
       <c r="W174" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>76</v>
+        <v>474</v>
       </c>
       <c r="Z174" t="s" s="2">
         <v>76</v>
@@ -22003,16 +22012,16 @@
         <v>76</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="AI174" t="s" s="2">
         <v>100</v>
@@ -22021,15 +22030,129 @@
         <v>76</v>
       </c>
       <c r="AK174" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P175" s="2"/>
+      <c r="Q175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE175" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AF175" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG175" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH175" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AI175" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK175" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL174" t="s" s="2">
+      <c r="AL175" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AM174" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN174" t="s" s="2">
+      <c r="AM175" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN175" t="s" s="2">
         <v>76</v>
       </c>
     </row>
